--- a/data/get_data/geocast_output/evaluation.xlsx
+++ b/data/get_data/geocast_output/evaluation.xlsx
@@ -1,31 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\geocast_output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389B4E1-F856-4AAA-86D7-FB19101CB7D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="Overhead" comment="packet数の総数 / multicast region の中にいるノードでパケットを受信したノード数">Sheet1!$C$13</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>GLSGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GSIGO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overhead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +384,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C4:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetData>
+    <row r="4" spans="3:12">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="K6">
+        <v>300</v>
+      </c>
+      <c r="L6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.32567938000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.41784388</v>
+      </c>
+      <c r="F8">
+        <v>0.70224489999999995</v>
+      </c>
+      <c r="G8">
+        <v>0.24213469000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.33043144000000002</v>
+      </c>
+      <c r="I8">
+        <v>0.53989891000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.23805306000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.32470145</v>
+      </c>
+      <c r="L8">
+        <v>0.55641017999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.36624252000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.48380099999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.80723356000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.27749211000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.3833281</v>
+      </c>
+      <c r="I9">
+        <v>0.62494996000000003</v>
+      </c>
+      <c r="J9">
+        <v>0.26320640000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.36696941</v>
+      </c>
+      <c r="L9">
+        <v>0.62936486000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="D10">
+        <f t="shared" ref="D10:I10" si="0">D9-D8</f>
+        <v>4.0563139999999998E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6.595711999999998E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.10498866000000007</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.5357420000000001E-2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>5.2896659999999984E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>8.5051050000000017E-2</v>
+      </c>
+      <c r="J10">
+        <f>J9-J8</f>
+        <v>2.5153339999999996E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:L10" si="1">K9-K8</f>
+        <v>4.2267959999999993E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>7.2954680000000049E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>400</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15">
+        <v>300</v>
+      </c>
+      <c r="I15">
+        <v>400</v>
+      </c>
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15">
+        <v>300</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16">
+        <v>30</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3.0603638399999999</v>
+      </c>
+      <c r="E17">
+        <v>2.4614744100000001</v>
+      </c>
+      <c r="F17">
+        <v>2.3648337800000001</v>
+      </c>
+      <c r="G17">
+        <v>3.17121166</v>
+      </c>
+      <c r="H17">
+        <v>2.4350989799999998</v>
+      </c>
+      <c r="I17">
+        <v>2.3712176999999999</v>
+      </c>
+      <c r="J17">
+        <v>3.2</v>
+      </c>
+      <c r="K17">
+        <v>2.4596081999999999</v>
+      </c>
+      <c r="L17">
+        <v>2.3805858400000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1.65919694</v>
+      </c>
+      <c r="E18">
+        <v>1.7565938000000001</v>
+      </c>
+      <c r="F18">
+        <v>1.8272764100000001</v>
+      </c>
+      <c r="G18">
+        <v>1.66851248</v>
+      </c>
+      <c r="H18">
+        <v>1.7784930699999999</v>
+      </c>
+      <c r="I18">
+        <v>1.81918768</v>
+      </c>
+      <c r="J18">
+        <v>1.6651394500000001</v>
+      </c>
+      <c r="K18">
+        <v>1.7704126600000001</v>
+      </c>
+      <c r="L18">
+        <v>1.82778324</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="D19">
+        <f t="shared" ref="D19:L19" si="2">D18-D17</f>
+        <v>-1.4011669</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>-0.70488061000000002</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>-0.53755737000000003</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>-1.50269918</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-0.6566059099999999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>-0.5520300199999999</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>-1.5348605500000001</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>-0.68919553999999983</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>-0.55280260000000014</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/get_data/geocast_output/evaluation.xlsx
+++ b/data/get_data/geocast_output/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\geocast_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4389B4E1-F856-4AAA-86D7-FB19101CB7D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39BD2DB-8C5C-434B-9A38-B50BD8B4651D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>GLSGO</t>
     <phoneticPr fontId="1"/>
@@ -60,6 +60,38 @@
   </si>
   <si>
     <t>Overhead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIGO(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LSGO(10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIGO(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LSGO(20)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SIGO(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LSGO(30)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Geocast evaluation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>overhead</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -120,6 +152,2805 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$6:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.36624252000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48380099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80723356000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$7:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.32567938000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41784388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70224489999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$8:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.27749211000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3833281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62494996000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.24213469000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33043144000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53989891000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26320640000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36696941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62936486000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$11:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.23805306000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32470145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55641017999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="385250623"/>
+        <c:axId val="385251039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="385250623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385251039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385251039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.85000000000000009"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+                  <a:t>パケット到達率</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385250623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$15:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.65919694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7565938000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8272764100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.0603638399999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4614744100000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3648337800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$17:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.66851248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7784930699999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.81918768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$18:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.17121166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4350989799999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3712176999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$19:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6651394500000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7704126600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.82778324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LSGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$14:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$20:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4596081999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3805858400000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6618-41FD-B389-67730F944494}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="385250623"/>
+        <c:axId val="385251039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="385250623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>タイトル</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385251039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="385251039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.5"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>タイトル</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385250623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1095F032-6817-425E-90C3-606DD93851B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8931ADBB-DF50-4753-AAC7-E5EAC5046BB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,22 +3214,293 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:L19"/>
+  <dimension ref="C2:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="4" spans="3:12">
+    <row r="2" spans="3:19">
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:19">
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="5" spans="3:19">
+      <c r="Q5">
+        <v>200</v>
+      </c>
+      <c r="R5">
+        <v>300</v>
+      </c>
+      <c r="S5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -429,8 +3531,20 @@
       <c r="L6">
         <v>400</v>
       </c>
+      <c r="P6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>0.36624252000000002</v>
+      </c>
+      <c r="R6">
+        <v>0.48380099999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.80723356000000002</v>
+      </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:19">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -461,8 +3575,20 @@
       <c r="L7">
         <v>30</v>
       </c>
+      <c r="P7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>0.32567938000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.41784388</v>
+      </c>
+      <c r="S7">
+        <v>0.70224489999999995</v>
+      </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:19">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -493,8 +3619,20 @@
       <c r="L8">
         <v>0.55641017999999998</v>
       </c>
+      <c r="P8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>0.27749211000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.3833281</v>
+      </c>
+      <c r="S8">
+        <v>0.62494996000000003</v>
+      </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:19">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -525,8 +3663,20 @@
       <c r="L9">
         <v>0.62936486000000003</v>
       </c>
+      <c r="P9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>0.24213469000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.33043144000000002</v>
+      </c>
+      <c r="S9">
+        <v>0.53989891000000001</v>
+      </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:19">
       <c r="D10">
         <f t="shared" ref="D10:I10" si="0">D9-D8</f>
         <v>4.0563139999999998E-2</v>
@@ -563,13 +3713,53 @@
         <f t="shared" si="1"/>
         <v>7.2954680000000049E-2</v>
       </c>
+      <c r="P10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>0.26320640000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.36696941</v>
+      </c>
+      <c r="S10">
+        <v>0.62936486000000003</v>
+      </c>
     </row>
-    <row r="13" spans="3:12">
+    <row r="11" spans="3:19">
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>0.23805306000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.32470145</v>
+      </c>
+      <c r="S11">
+        <v>0.55641017999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
       <c r="C13" t="s">
         <v>5</v>
       </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="3:12">
+    <row r="14" spans="3:19">
+      <c r="Q14">
+        <v>200</v>
+      </c>
+      <c r="R14">
+        <v>300</v>
+      </c>
+      <c r="S14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -600,8 +3790,20 @@
       <c r="L15">
         <v>400</v>
       </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15">
+        <v>1.65919694</v>
+      </c>
+      <c r="R15">
+        <v>1.7565938000000001</v>
+      </c>
+      <c r="S15">
+        <v>1.8272764100000001</v>
+      </c>
     </row>
-    <row r="16" spans="3:12">
+    <row r="16" spans="3:19">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -632,8 +3834,20 @@
       <c r="L16">
         <v>30</v>
       </c>
+      <c r="P16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16">
+        <v>3.0603638399999999</v>
+      </c>
+      <c r="R16">
+        <v>2.4614744100000001</v>
+      </c>
+      <c r="S16">
+        <v>2.3648337800000001</v>
+      </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:19">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -664,8 +3878,20 @@
       <c r="L17">
         <v>2.3805858400000002</v>
       </c>
+      <c r="P17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>1.66851248</v>
+      </c>
+      <c r="R17">
+        <v>1.7784930699999999</v>
+      </c>
+      <c r="S17">
+        <v>1.81918768</v>
+      </c>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:19">
       <c r="C18" t="s">
         <v>1</v>
       </c>
@@ -696,8 +3922,20 @@
       <c r="L18">
         <v>1.82778324</v>
       </c>
+      <c r="P18" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <v>3.17121166</v>
+      </c>
+      <c r="R18">
+        <v>2.4350989799999998</v>
+      </c>
+      <c r="S18">
+        <v>2.3712176999999999</v>
+      </c>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:19">
       <c r="D19">
         <f t="shared" ref="D19:L19" si="2">D18-D17</f>
         <v>-1.4011669</v>
@@ -733,11 +3971,38 @@
       <c r="L19">
         <f t="shared" si="2"/>
         <v>-0.55280260000000014</v>
+      </c>
+      <c r="P19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19">
+        <v>1.6651394500000001</v>
+      </c>
+      <c r="R19">
+        <v>1.7704126600000001</v>
+      </c>
+      <c r="S19">
+        <v>1.82778324</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="P20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20">
+        <v>3.2</v>
+      </c>
+      <c r="R20">
+        <v>2.4596081999999999</v>
+      </c>
+      <c r="S20">
+        <v>2.3805858400000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/get_data/geocast_output/evaluation.xlsx
+++ b/data/get_data/geocast_output/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\geocast_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39BD2DB-8C5C-434B-9A38-B50BD8B4651D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE72DA-623C-4CD2-802A-AEB3CA4D54A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>GLSGO</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +94,32 @@
     <t>overhead</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>packet数</t>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDRの差</t>
+    <rPh sb="4" eb="5">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shadow30</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,12 +157,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -237,13 +352,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.36624252000000002</c:v>
+                  <c:v>0.36939126</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48380099999999998</c:v>
+                  <c:v>0.49690968000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80723356000000002</c:v>
+                  <c:v>0.80855220999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,13 +434,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.32567938000000002</c:v>
+                  <c:v>0.33474371000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41784388</c:v>
+                  <c:v>0.42503952</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70224489999999995</c:v>
+                  <c:v>0.70467172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,13 +515,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.27749211000000001</c:v>
+                  <c:v>0.27233244000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3833281</c:v>
+                  <c:v>0.37447606</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62494996000000003</c:v>
+                  <c:v>0.62033959999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,13 +597,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.24213469000000001</c:v>
+                  <c:v>0.24799386000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33043144000000002</c:v>
+                  <c:v>0.34418267000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53989891000000001</c:v>
+                  <c:v>0.54877158000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,13 +678,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.26320640000000001</c:v>
+                  <c:v>0.26591532000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36696941</c:v>
+                  <c:v>0.36919288</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62936486000000003</c:v>
+                  <c:v>0.61412800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -645,13 +760,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.23805306000000001</c:v>
+                  <c:v>0.24236105999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32470145</c:v>
+                  <c:v>0.33144762999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55641017999999998</c:v>
+                  <c:v>0.54364013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,6 +824,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49153158025492782"/>
+              <c:y val="0.76016618943806336"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1056,13 +1179,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.65919694</c:v>
+                  <c:v>3.3515318000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7565938000000001</c:v>
+                  <c:v>2.5387668699999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8272764100000001</c:v>
+                  <c:v>2.3705187900000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,13 +1261,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.0603638399999999</c:v>
+                  <c:v>3.1936192399999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4614744100000001</c:v>
+                  <c:v>2.5147221399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3648337800000001</c:v>
+                  <c:v>2.3621986599999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,13 +1342,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.66851248</c:v>
+                  <c:v>3.4579303399999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7784930699999999</c:v>
+                  <c:v>2.4268855299999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.81918768</c:v>
+                  <c:v>2.37890165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,13 +1424,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.17121166</c:v>
+                  <c:v>3.2311408199999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4350989799999998</c:v>
+                  <c:v>2.4773799900000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3712176999999999</c:v>
+                  <c:v>2.3845667100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,13 +1505,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.6651394500000001</c:v>
+                  <c:v>3.5364474600000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7704126600000001</c:v>
+                  <c:v>2.4281539799999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.82778324</c:v>
+                  <c:v>2.3564375800000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,13 +1587,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.2</c:v>
+                  <c:v>3.35930142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4596081999999999</c:v>
+                  <c:v>2.4970007500000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3805858400000002</c:v>
+                  <c:v>2.3842253599999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,7 +1646,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>タイトル</a:t>
+                  <a:t>ノード数</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1605,8 +1728,8 @@
         <c:axId val="385251039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3.5"/>
-          <c:min val="1.5"/>
+          <c:max val="3.7"/>
+          <c:min val="2.2999999999999998"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1644,9 +1767,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
-                  <a:t>タイトル</a:t>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Overhead</a:t>
                 </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1790,6 +1914,1259 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>総パケット数 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+              <a:t>/ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>エリア内ノード受信数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(10)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSGO(10)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SIGO(20)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LSGO(20)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SIGO(30)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LSGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$15:$Q$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3515318000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1936192399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4579303399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2311408199999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5364474600000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.35930142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-170E-4B62-B238-246806E7192A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(10)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSGO(10)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SIGO(20)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LSGO(20)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SIGO(30)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LSGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$15:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5387668699999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5147221399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4268855299999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4773799900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4281539799999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4970007500000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-170E-4B62-B238-246806E7192A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$15:$P$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>SIGO(10)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LSGO(10)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SIGO(20)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LSGO(20)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SIGO(30)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LSGO(30)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$15:$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.3705187900000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3621986599999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.37890165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3845667100000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3564375800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3842253599999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-170E-4B62-B238-246806E7192A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1087266767"/>
+        <c:axId val="1087267183"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1087266767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087267183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1087267183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.6"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+                  <a:t>overhead</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087266767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" b="1"/>
+              <a:t>PDR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" b="1"/>
+              <a:t>の差</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35115966754155731"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shadow10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.4647549999999971E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1870160000000016E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10388048999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1C8-4872-A7EA-70211BDB416D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shadow20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4338579999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0293389999999976E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1568019999999954E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1C8-4872-A7EA-70211BDB416D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shadow30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$5:$X$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$8:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3554260000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7745250000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0487870000000008E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B1C8-4872-A7EA-70211BDB416D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1237421999"/>
+        <c:axId val="1237417423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1237421999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1050" b="1"/>
+                  <a:t>ノード数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237417423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1237417423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                  <a:t>SIGO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+                  <a:t> - LSGO</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1237421999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1870,6 +3247,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2876,20 +4333,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>122533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295596</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2916,23 +5392,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>80962</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314809</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560197</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89276</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8931ADBB-DF50-4753-AAC7-E5EAC5046BB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999CC8D5-C223-4900-91BF-B1F8A6FE25A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,6 +5421,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>655450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655448</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18889</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5C0F10-3187-42CA-9748-4629EFBD494B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>118659</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>576181</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30673</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF9B30B-5A9E-4A64-A529-4375289165A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3468,28 +6016,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:S20"/>
+  <dimension ref="C2:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="59" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <sheetData>
-    <row r="2" spans="3:19">
+    <row r="2" spans="3:24">
       <c r="P2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:19">
+    <row r="4" spans="3:24">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="P4" t="s">
         <v>4</v>
       </c>
+      <c r="U4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="3:19">
+    <row r="5" spans="3:24">
       <c r="Q5">
         <v>200</v>
       </c>
@@ -3499,8 +6050,17 @@
       <c r="S5">
         <v>400</v>
       </c>
+      <c r="V5">
+        <v>200</v>
+      </c>
+      <c r="W5">
+        <v>300</v>
+      </c>
+      <c r="X5">
+        <v>400</v>
+      </c>
     </row>
-    <row r="6" spans="3:19">
+    <row r="6" spans="3:24">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -3535,16 +6095,31 @@
         <v>6</v>
       </c>
       <c r="Q6">
-        <v>0.36624252000000002</v>
+        <v>0.36939126</v>
       </c>
       <c r="R6">
-        <v>0.48380099999999998</v>
+        <v>0.49690968000000002</v>
       </c>
       <c r="S6">
-        <v>0.80723356000000002</v>
+        <v>0.80855220999999999</v>
+      </c>
+      <c r="U6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6">
+        <f>Q6-Q7</f>
+        <v>3.4647549999999971E-2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:X6" si="0">R6-R7</f>
+        <v>7.1870160000000016E-2</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0.10388048999999999</v>
       </c>
     </row>
-    <row r="7" spans="3:19">
+    <row r="7" spans="3:24">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -3579,16 +6154,31 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>0.32567938000000002</v>
+        <v>0.33474371000000003</v>
       </c>
       <c r="R7">
-        <v>0.41784388</v>
+        <v>0.42503952</v>
       </c>
       <c r="S7">
-        <v>0.70224489999999995</v>
+        <v>0.70467172</v>
+      </c>
+      <c r="U7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7">
+        <f>Q8-Q9</f>
+        <v>2.4338579999999999E-2</v>
+      </c>
+      <c r="W7">
+        <f>R8-R9</f>
+        <v>3.0293389999999976E-2</v>
+      </c>
+      <c r="X7">
+        <f>S8-S9</f>
+        <v>7.1568019999999954E-2</v>
       </c>
     </row>
-    <row r="8" spans="3:19">
+    <row r="8" spans="3:24">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -3623,16 +6213,31 @@
         <v>8</v>
       </c>
       <c r="Q8">
-        <v>0.27749211000000001</v>
+        <v>0.27233244000000001</v>
       </c>
       <c r="R8">
-        <v>0.3833281</v>
+        <v>0.37447606</v>
       </c>
       <c r="S8">
-        <v>0.62494996000000003</v>
+        <v>0.62033959999999999</v>
+      </c>
+      <c r="U8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V8">
+        <f>(Q10-Q11)</f>
+        <v>2.3554260000000021E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:X8" si="1">(R10-R11)</f>
+        <v>3.7745250000000008E-2</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>7.0487870000000008E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:19">
+    <row r="9" spans="3:24">
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -3667,38 +6272,38 @@
         <v>9</v>
       </c>
       <c r="Q9">
-        <v>0.24213469000000001</v>
+        <v>0.24799386000000001</v>
       </c>
       <c r="R9">
-        <v>0.33043144000000002</v>
+        <v>0.34418267000000002</v>
       </c>
       <c r="S9">
-        <v>0.53989891000000001</v>
+        <v>0.54877158000000004</v>
       </c>
     </row>
-    <row r="10" spans="3:19">
+    <row r="10" spans="3:24">
       <c r="D10">
-        <f t="shared" ref="D10:I10" si="0">D9-D8</f>
+        <f t="shared" ref="D10:I10" si="2">D9-D8</f>
         <v>4.0563139999999998E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.595711999999998E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.10498866000000007</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.5357420000000001E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2896659999999984E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5051050000000017E-2</v>
       </c>
       <c r="J10">
@@ -3706,41 +6311,41 @@
         <v>2.5153339999999996E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:L10" si="1">K9-K8</f>
+        <f t="shared" ref="K10:L10" si="3">K9-K8</f>
         <v>4.2267959999999993E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2954680000000049E-2</v>
       </c>
       <c r="P10" t="s">
         <v>10</v>
       </c>
       <c r="Q10">
-        <v>0.26320640000000001</v>
+        <v>0.26591532000000001</v>
       </c>
       <c r="R10">
-        <v>0.36696941</v>
+        <v>0.36919288</v>
       </c>
       <c r="S10">
-        <v>0.62936486000000003</v>
+        <v>0.61412800000000001</v>
       </c>
     </row>
-    <row r="11" spans="3:19">
+    <row r="11" spans="3:24">
       <c r="P11" t="s">
         <v>11</v>
       </c>
       <c r="Q11">
-        <v>0.23805306000000001</v>
+        <v>0.24236105999999999</v>
       </c>
       <c r="R11">
-        <v>0.32470145</v>
+        <v>0.33144762999999999</v>
       </c>
       <c r="S11">
-        <v>0.55641017999999998</v>
+        <v>0.54364013</v>
       </c>
     </row>
-    <row r="13" spans="3:19">
+    <row r="13" spans="3:24">
       <c r="C13" t="s">
         <v>5</v>
       </c>
@@ -3748,7 +6353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:19">
+    <row r="14" spans="3:24">
       <c r="Q14">
         <v>200</v>
       </c>
@@ -3759,7 +6364,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="3:19">
+    <row r="15" spans="3:24">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -3794,16 +6399,16 @@
         <v>6</v>
       </c>
       <c r="Q15">
-        <v>1.65919694</v>
+        <v>3.3515318000000001</v>
       </c>
       <c r="R15">
-        <v>1.7565938000000001</v>
+        <v>2.5387668699999999</v>
       </c>
       <c r="S15">
-        <v>1.8272764100000001</v>
+        <v>2.3705187900000002</v>
       </c>
     </row>
-    <row r="16" spans="3:19">
+    <row r="16" spans="3:24">
       <c r="C16" t="s">
         <v>3</v>
       </c>
@@ -3838,16 +6443,16 @@
         <v>7</v>
       </c>
       <c r="Q16">
-        <v>3.0603638399999999</v>
+        <v>3.1936192399999999</v>
       </c>
       <c r="R16">
-        <v>2.4614744100000001</v>
+        <v>2.5147221399999999</v>
       </c>
       <c r="S16">
-        <v>2.3648337800000001</v>
+        <v>2.3621986599999998</v>
       </c>
     </row>
-    <row r="17" spans="3:19">
+    <row r="17" spans="3:24">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -3882,16 +6487,16 @@
         <v>8</v>
       </c>
       <c r="Q17">
-        <v>1.66851248</v>
+        <v>3.4579303399999999</v>
       </c>
       <c r="R17">
-        <v>1.7784930699999999</v>
+        <v>2.4268855299999998</v>
       </c>
       <c r="S17">
-        <v>1.81918768</v>
+        <v>2.37890165</v>
       </c>
     </row>
-    <row r="18" spans="3:19">
+    <row r="18" spans="3:24">
       <c r="C18" t="s">
         <v>1</v>
       </c>
@@ -3926,77 +6531,401 @@
         <v>9</v>
       </c>
       <c r="Q18">
-        <v>3.17121166</v>
+        <v>3.2311408199999998</v>
       </c>
       <c r="R18">
-        <v>2.4350989799999998</v>
+        <v>2.4773799900000002</v>
       </c>
       <c r="S18">
-        <v>2.3712176999999999</v>
+        <v>2.3845667100000001</v>
       </c>
     </row>
-    <row r="19" spans="3:19">
+    <row r="19" spans="3:24">
       <c r="D19">
-        <f t="shared" ref="D19:L19" si="2">D18-D17</f>
+        <f t="shared" ref="D19:L19" si="4">D18-D17</f>
         <v>-1.4011669</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.70488061000000002</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.53755737000000003</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.50269918</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.6566059099999999</v>
       </c>
       <c r="I19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.5520300199999999</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.5348605500000001</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.68919553999999983</v>
       </c>
       <c r="L19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.55280260000000014</v>
       </c>
       <c r="P19" t="s">
         <v>10</v>
       </c>
       <c r="Q19">
-        <v>1.6651394500000001</v>
+        <v>3.5364474600000002</v>
       </c>
       <c r="R19">
-        <v>1.7704126600000001</v>
+        <v>2.4281539799999998</v>
       </c>
       <c r="S19">
-        <v>1.82778324</v>
+        <v>2.3564375800000001</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
+    <row r="20" spans="3:24">
       <c r="P20" t="s">
         <v>11</v>
       </c>
       <c r="Q20">
-        <v>3.2</v>
+        <v>3.35930142</v>
       </c>
       <c r="R20">
-        <v>2.4596081999999999</v>
+        <v>2.4970007500000002</v>
       </c>
       <c r="S20">
-        <v>2.3805858400000002</v>
+        <v>2.3842253599999998</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="P22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24">
+      <c r="Q23">
+        <v>200</v>
+      </c>
+      <c r="R23">
+        <v>300</v>
+      </c>
+      <c r="S23">
+        <v>400</v>
+      </c>
+      <c r="V23">
+        <v>200</v>
+      </c>
+      <c r="W23">
+        <v>300</v>
+      </c>
+      <c r="X23">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="L24" s="1">
+        <v>244.38383837999999</v>
+      </c>
+      <c r="M24" s="2">
+        <v>390.66666666999998</v>
+      </c>
+      <c r="N24" s="3">
+        <v>788.71717172000001</v>
+      </c>
+      <c r="P24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>24.438383838</v>
+      </c>
+      <c r="R24">
+        <v>39.066666667</v>
+      </c>
+      <c r="S24">
+        <v>78.871717172000004</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24">
+      <c r="L25" s="4">
+        <v>163.88888889</v>
+      </c>
+      <c r="M25" s="5">
+        <v>262.74747474999998</v>
+      </c>
+      <c r="N25" s="6">
+        <v>546.80808080999998</v>
+      </c>
+      <c r="P25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>16.388888889</v>
+      </c>
+      <c r="R25">
+        <v>26.274747474999998</v>
+      </c>
+      <c r="S25">
+        <v>54.680808080999995</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24">
+      <c r="L26" s="4">
+        <v>197.80808081000001</v>
+      </c>
+      <c r="M26" s="5">
+        <v>284.71717172000001</v>
+      </c>
+      <c r="N26" s="6">
+        <v>615.72727272999998</v>
+      </c>
+      <c r="P26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26">
+        <v>19.780808081</v>
+      </c>
+      <c r="R26">
+        <v>28.471717172000002</v>
+      </c>
+      <c r="S26">
+        <v>61.572727272999998</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="L27" s="4">
+        <v>163.88888889</v>
+      </c>
+      <c r="M27" s="5">
+        <v>262.74747474999998</v>
+      </c>
+      <c r="N27" s="6">
+        <v>546.80808080999998</v>
+      </c>
+      <c r="P27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27">
+        <v>16.388888889</v>
+      </c>
+      <c r="R27">
+        <v>26.274747474999998</v>
+      </c>
+      <c r="S27">
+        <v>54.680808080999995</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24">
+      <c r="L28" s="4">
+        <v>191.42424242000001</v>
+      </c>
+      <c r="M28" s="5">
+        <v>280.75757576000001</v>
+      </c>
+      <c r="N28" s="6">
+        <v>603.51515152000002</v>
+      </c>
+      <c r="P28" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>19.142424242000001</v>
+      </c>
+      <c r="R28">
+        <v>28.075757576000001</v>
+      </c>
+      <c r="S28">
+        <v>60.351515152000005</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24">
+      <c r="L29" s="7">
+        <v>168.88888889</v>
+      </c>
+      <c r="M29" s="8">
+        <v>256.25252525000002</v>
+      </c>
+      <c r="N29" s="9">
+        <v>541.46464646000004</v>
+      </c>
+      <c r="P29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29">
+        <v>16.888888889</v>
+      </c>
+      <c r="R29">
+        <v>25.625252525000001</v>
+      </c>
+      <c r="S29">
+        <v>54.146464646000005</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24">
+      <c r="L30">
+        <f t="shared" ref="L30:N30" si="5">L24/10</f>
+        <v>24.438383838</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>39.066666667</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>78.871717172000004</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24">
+      <c r="L31">
+        <f t="shared" ref="L31:N31" si="6">L25/10</f>
+        <v>16.388888889</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>26.274747474999998</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>54.680808080999995</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24">
+      <c r="L32">
+        <f>L26/10</f>
+        <v>19.780808081</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:N32" si="7">M26/10</f>
+        <v>28.471717172000002</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="7"/>
+        <v>61.572727272999998</v>
+      </c>
+    </row>
+    <row r="33" spans="12:19">
+      <c r="L33">
+        <f t="shared" ref="L33:N33" si="8">L27/10</f>
+        <v>16.388888889</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="8"/>
+        <v>26.274747474999998</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>54.680808080999995</v>
+      </c>
+    </row>
+    <row r="34" spans="12:19">
+      <c r="L34">
+        <f t="shared" ref="L34:N34" si="9">L28/10</f>
+        <v>19.142424242000001</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="9"/>
+        <v>28.075757576000001</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
+        <v>60.351515152000005</v>
+      </c>
+    </row>
+    <row r="35" spans="12:19">
+      <c r="L35">
+        <f t="shared" ref="L35:N35" si="10">L29/10</f>
+        <v>16.888888889</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="10"/>
+        <v>25.625252525000001</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="10"/>
+        <v>54.146464646000005</v>
+      </c>
+    </row>
+    <row r="43" spans="12:19">
+      <c r="Q43">
+        <v>200</v>
+      </c>
+      <c r="R43">
+        <v>300</v>
+      </c>
+      <c r="S43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="12:19">
+      <c r="P44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="12:19">
+      <c r="P45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="12:19">
+      <c r="P46" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q46">
+        <v>3.8579303399999998</v>
+      </c>
+      <c r="R46">
+        <v>2.4268855299999998</v>
+      </c>
+      <c r="S46">
+        <v>2.37890165</v>
+      </c>
+    </row>
+    <row r="47" spans="12:19">
+      <c r="P47" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q47">
+        <v>3.2311408199999998</v>
+      </c>
+      <c r="R47">
+        <v>2.4773799900000002</v>
+      </c>
+      <c r="S47">
+        <v>2.3845667100000001</v>
+      </c>
+    </row>
+    <row r="48" spans="12:19">
+      <c r="P48" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48">
+        <v>3.7364474599999999</v>
+      </c>
+      <c r="R48">
+        <v>2.4281539799999998</v>
+      </c>
+      <c r="S48">
+        <v>2.3564375800000001</v>
+      </c>
+    </row>
+    <row r="49" spans="16:19">
+      <c r="P49" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49">
+        <v>3.35930142</v>
+      </c>
+      <c r="R49">
+        <v>2.4970007500000002</v>
+      </c>
+      <c r="S49">
+        <v>2.3842253599999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/get_data/geocast_output/evaluation.xlsx
+++ b/data/get_data/geocast_output/evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuto\workspace\ns-3-allinone\ns3.30\data\get_data\geocast_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE72DA-623C-4CD2-802A-AEB3CA4D54A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D09D5C2-DB40-4AB8-B841-AFD1196FAFCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -805,7 +805,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -818,7 +818,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
                   <a:t>ノード数</a:t>
                 </a:r>
               </a:p>
@@ -828,8 +828,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.49153158025492782"/>
-              <c:y val="0.76016618943806336"/>
+              <c:x val="0.50138090786144829"/>
+              <c:y val="0.89667911952724688"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -845,7 +845,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -883,7 +883,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -935,7 +935,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -948,10 +948,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
                   <a:t>パケット到達率</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+                <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -968,7 +968,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1000,7 +1000,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1042,7 +1042,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1632,7 +1632,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1645,7 +1645,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
                   <a:t>ノード数</a:t>
                 </a:r>
               </a:p>
@@ -1664,7 +1664,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1702,7 +1702,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1754,7 +1754,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1767,10 +1767,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP"/>
-                  <a:t>Overhead</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+                  <a:t>オーバーヘッド</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1787,7 +1786,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1819,7 +1818,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1861,7 +1860,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2274,7 +2273,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2287,7 +2286,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
                   <a:t>ノード数</a:t>
                 </a:r>
               </a:p>
@@ -2306,7 +2305,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2344,7 +2343,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2396,7 +2395,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2409,10 +2408,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
-                  <a:t>overhead</a:t>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+                  <a:t>オーバーヘッド</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2429,7 +2427,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2461,7 +2459,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2503,7 +2501,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5356,16 +5354,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>122533</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>474337</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>182714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295596</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>20340</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>352790</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5392,16 +5390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314809</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>98802</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>662116</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>560197</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>89276</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>210647</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>64111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5428,16 +5426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>655450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114139</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>270361</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>132982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>655448</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>18889</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>586517</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27474</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5464,16 +5462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>118659</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>30672</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>63037</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>141508</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>576181</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>30673</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>529406</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>141509</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6018,8 +6016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:X49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="59" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="52" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -6111,11 +6109,11 @@
         <v>3.4647549999999971E-2</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:X6" si="0">R6-R7</f>
+        <f>R6-R7</f>
         <v>7.1870160000000016E-2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
+        <f>S6-S7</f>
         <v>0.10388048999999999</v>
       </c>
     </row>
@@ -6229,11 +6227,11 @@
         <v>2.3554260000000021E-2</v>
       </c>
       <c r="W8">
-        <f t="shared" ref="W8:X8" si="1">(R10-R11)</f>
+        <f>(R10-R11)</f>
         <v>3.7745250000000008E-2</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
+        <f>(S10-S11)</f>
         <v>7.0487870000000008E-2</v>
       </c>
     </row>
@@ -6283,27 +6281,27 @@
     </row>
     <row r="10" spans="3:24">
       <c r="D10">
-        <f t="shared" ref="D10:I10" si="2">D9-D8</f>
+        <f t="shared" ref="D10:I10" si="0">D9-D8</f>
         <v>4.0563139999999998E-2</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.595711999999998E-2</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.10498866000000007</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.5357420000000001E-2</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>5.2896659999999984E-2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>8.5051050000000017E-2</v>
       </c>
       <c r="J10">
@@ -6311,11 +6309,11 @@
         <v>2.5153339999999996E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:L10" si="3">K9-K8</f>
+        <f>K9-K8</f>
         <v>4.2267959999999993E-2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f>L9-L8</f>
         <v>7.2954680000000049E-2</v>
       </c>
       <c r="P10" t="s">
@@ -6542,39 +6540,39 @@
     </row>
     <row r="19" spans="3:24">
       <c r="D19">
-        <f t="shared" ref="D19:L19" si="4">D18-D17</f>
+        <f t="shared" ref="D19:L19" si="1">D18-D17</f>
         <v>-1.4011669</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-0.70488061000000002</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-0.53755737000000003</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.50269918</v>
       </c>
       <c r="H19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-0.6566059099999999</v>
       </c>
       <c r="I19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-0.5520300199999999</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-1.5348605500000001</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-0.68919553999999983</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-0.55280260000000014</v>
       </c>
       <c r="P19" t="s">
@@ -6769,85 +6767,85 @@
     </row>
     <row r="30" spans="3:24">
       <c r="L30">
-        <f t="shared" ref="L30:N30" si="5">L24/10</f>
+        <f t="shared" ref="L30:N35" si="2">L24/10</f>
         <v>24.438383838</v>
       </c>
       <c r="M30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>39.066666667</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>78.871717172000004</v>
       </c>
     </row>
     <row r="31" spans="3:24">
       <c r="L31">
-        <f t="shared" ref="L31:N31" si="6">L25/10</f>
+        <f t="shared" si="2"/>
         <v>16.388888889</v>
       </c>
       <c r="M31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>26.274747474999998</v>
       </c>
       <c r="N31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>54.680808080999995</v>
       </c>
     </row>
     <row r="32" spans="3:24">
       <c r="L32">
-        <f>L26/10</f>
+        <f t="shared" si="2"/>
         <v>19.780808081</v>
       </c>
       <c r="M32">
-        <f t="shared" ref="M32:N32" si="7">M26/10</f>
+        <f t="shared" si="2"/>
         <v>28.471717172000002</v>
       </c>
       <c r="N32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>61.572727272999998</v>
       </c>
     </row>
     <row r="33" spans="12:19">
       <c r="L33">
-        <f t="shared" ref="L33:N33" si="8">L27/10</f>
+        <f t="shared" si="2"/>
         <v>16.388888889</v>
       </c>
       <c r="M33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>26.274747474999998</v>
       </c>
       <c r="N33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>54.680808080999995</v>
       </c>
     </row>
     <row r="34" spans="12:19">
       <c r="L34">
-        <f t="shared" ref="L34:N34" si="9">L28/10</f>
+        <f t="shared" si="2"/>
         <v>19.142424242000001</v>
       </c>
       <c r="M34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>28.075757576000001</v>
       </c>
       <c r="N34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>60.351515152000005</v>
       </c>
     </row>
     <row r="35" spans="12:19">
       <c r="L35">
-        <f t="shared" ref="L35:N35" si="10">L29/10</f>
+        <f t="shared" si="2"/>
         <v>16.888888889</v>
       </c>
       <c r="M35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>25.625252525000001</v>
       </c>
       <c r="N35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>54.146464646000005</v>
       </c>
     </row>
